--- a/BankApplication/DataFiles/Customer_Details.xlsx
+++ b/BankApplication/DataFiles/Customer_Details.xlsx
@@ -13,7 +13,7 @@
   <calcPr calcId="0"/>
   <oleSize ref="A1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -60,6 +60,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -422,11 +423,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -454,8 +455,8 @@
       <c r="B2">
         <v>1000</v>
       </c>
-      <c r="C2">
-        <v>10000</v>
+      <c r="C2" t="n">
+        <v>8700.0</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -471,8 +472,8 @@
       <c r="B3">
         <v>1001</v>
       </c>
-      <c r="C3">
-        <v>20000</v>
+      <c r="C3" t="n">
+        <v>19800.0</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>

--- a/BankApplication/DataFiles/Customer_Details.xlsx
+++ b/BankApplication/DataFiles/Customer_Details.xlsx
@@ -3,17 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8F66A170-7B73-4009-A451-A5DD963AF86C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jyotshna Reddy Ette\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC3834ED-9D06-4137-9D5E-CB0D091B3298}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="23304" windowHeight="13224" xr2:uid="{526C0E0B-384E-4985-A3A9-5621D229F397}"/>
+    <workbookView xWindow="2688" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{526C0E0B-384E-4985-A3A9-5621D229F397}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -54,13 +58,27 @@
   </si>
   <si>
     <t>02-17-2017</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>nivi</t>
+  </si>
+  <si>
+    <t>rahul</t>
+  </si>
+  <si>
+    <t>tanu</t>
+  </si>
+  <si>
+    <t>Username</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -415,22 +433,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CAA89BC-0BD6-4B69-881E-E31C8804C69E}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.44140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.21875" collapsed="true"/>
+    <col min="1" max="1" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.21875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,17 +464,22 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
         <v>1000</v>
       </c>
-      <c r="C2" t="n">
-        <v>8700.0</v>
+      <c r="C2">
+        <v>15704</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -464,16 +487,22 @@
       <c r="E2">
         <v>5000</v>
       </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3">
         <v>1001</v>
       </c>
-      <c r="C3" t="n">
-        <v>19800.0</v>
+      <c r="C3">
+        <v>20000</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -481,8 +510,14 @@
       <c r="E3">
         <v>2000</v>
       </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -497,6 +532,12 @@
       </c>
       <c r="E4">
         <v>1000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/BankApplication/DataFiles/Customer_Details.xlsx
+++ b/BankApplication/DataFiles/Customer_Details.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jyotshna Reddy Ette\Desktop\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -79,6 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -441,11 +442,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -478,8 +479,8 @@
       <c r="B2">
         <v>1000</v>
       </c>
-      <c r="C2">
-        <v>15704</v>
+      <c r="C2" t="n">
+        <v>15404.0</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
